--- a/Report_Indigenous_May_2022.xlsx
+++ b/Report_Indigenous_May_2022.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abubt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1FF042-A4E2-4125-AA2C-ED91D6DB9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911496F-CC5B-441A-8B1C-680ED4556C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrolments" sheetId="1" r:id="rId1"/>
-    <sheet name="Field_of_Education" sheetId="3" r:id="rId2"/>
+    <sheet name="Education" sheetId="3" r:id="rId2"/>
     <sheet name="Course_Level" sheetId="4" r:id="rId3"/>
     <sheet name="Completions" sheetId="5" r:id="rId4"/>
     <sheet name="Completion_Rates" sheetId="6" r:id="rId5"/>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
